--- a/data/trans_orig/IP16B08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{242C9E18-FCC3-4F28-BD33-41BAFDDC0C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{557607DB-E26A-4EA5-B1B2-D8F645C2BC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A6FBBB0A-0F27-4A3D-89E4-04BFB8A5774A}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CB458034-D86D-47CB-A663-219EDF8981C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,69 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
     <t>33,17%</t>
   </si>
   <si>
@@ -94,18 +142,6 @@
     <t>46,0%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>66,83%</t>
   </si>
   <si>
@@ -118,72 +154,36 @@
     <t>54,0%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
     <t>3,49%</t>
   </si>
   <si>
@@ -229,6 +229,21 @@
     <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2012 (Tasa respuesta: 2,53%)</t>
   </si>
   <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
     <t>17,08%</t>
   </si>
   <si>
@@ -247,10 +262,16 @@
     <t>88,17%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>16,97%</t>
@@ -277,27 +298,6 @@
     <t>56,55%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
     <t>5,48%</t>
   </si>
   <si>
@@ -331,16 +331,16 @@
     <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2015 (Tasa respuesta: 2,35%)</t>
   </si>
   <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
     <t>11,15%</t>
   </si>
   <si>
     <t>88,85%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8EDDA9-9EF8-4B23-A288-E251116B1B79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8296D76C-1475-4CF4-BBB5-7E3D443BD3AD}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -868,10 +868,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -883,31 +883,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1308</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1308</v>
+        <v>818</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -919,49 +919,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>4603</v>
+        <v>961</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>2634</v>
+        <v>3455</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4416</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>11</v>
-      </c>
-      <c r="N5" s="7">
-        <v>7237</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -970,10 +970,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>4603</v>
+        <v>1779</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -985,25 +985,25 @@
         <v>21</v>
       </c>
       <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3455</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="7">
         <v>6</v>
       </c>
-      <c r="I6" s="7">
-        <v>3942</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="7">
-        <v>13</v>
-      </c>
       <c r="N6" s="7">
-        <v>8545</v>
+        <v>5234</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>21</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1080,10 +1080,10 @@
         <v>2702</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -1095,10 +1095,10 @@
         <v>4826</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -1110,10 +1110,10 @@
         <v>7528</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1184,37 +1184,37 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1308</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1308</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
@@ -1229,49 +1229,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>8466</v>
+        <v>4603</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2634</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5258</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>13724</v>
+        <v>7237</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1280,10 +1280,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>8466</v>
+        <v>4603</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -1295,10 +1295,10 @@
         <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>5258</v>
+        <v>3942</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -1310,10 +1310,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>13724</v>
+        <v>8545</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -1327,25 +1327,25 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1354,28 +1354,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1384,49 +1384,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>961</v>
+        <v>5861</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>3455</v>
+        <v>1885</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N14" s="7">
-        <v>4416</v>
+        <v>7746</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1435,10 +1435,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D15" s="7">
-        <v>1779</v>
+        <v>5861</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -1450,10 +1450,10 @@
         <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="7">
-        <v>3455</v>
+        <v>1885</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -1465,10 +1465,10 @@
         <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N15" s="7">
-        <v>5234</v>
+        <v>7746</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1524,13 +1524,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,46 +1539,46 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>5861</v>
+        <v>8466</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5258</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="7">
         <v>19</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1885</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="N17" s="7">
+        <v>13724</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="7">
-        <v>12</v>
-      </c>
-      <c r="N17" s="7">
-        <v>7746</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -1590,10 +1590,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>5861</v>
+        <v>8466</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -1605,10 +1605,10 @@
         <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>1885</v>
+        <v>5258</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>21</v>
@@ -1620,10 +1620,10 @@
         <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>7746</v>
+        <v>13724</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -1652,7 +1652,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>49</v>
@@ -1667,7 +1667,7 @@
         <v>50</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>51</v>
@@ -1706,7 +1706,7 @@
         <v>56</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -1721,7 +1721,7 @@
         <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -1808,7 +1808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F116100-7376-4EF1-B93E-FD399F1A710B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C26CD3C-1673-468D-BB28-485B2E7EA91B}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1928,14 +1928,12 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>63</v>
@@ -1947,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>64</v>
@@ -1962,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,46 +1975,44 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7">
-        <v>7419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>3261</v>
+        <v>896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>10680</v>
+        <v>896</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2028,25 +2024,23 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7">
-        <v>7419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>3261</v>
+        <v>896</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -2058,10 +2052,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>10680</v>
+        <v>896</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>21</v>
@@ -2075,7 +2069,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2087,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2102,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2117,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,10 +2132,10 @@
         <v>2736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2153,10 +2147,10 @@
         <v>6248</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2168,10 +2162,10 @@
         <v>8984</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -2230,25 +2224,25 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1097</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2257,28 +2251,28 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>1098</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,49 +2281,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>5369</v>
+        <v>7419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>2786</v>
+        <v>3261</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>8154</v>
+        <v>10680</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,10 +2332,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>6466</v>
+        <v>7419</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -2353,10 +2347,10 @@
         <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>2786</v>
+        <v>3261</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -2368,10 +2362,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>9252</v>
+        <v>10680</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -2385,7 +2379,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2393,15 +2387,17 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2410,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2425,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,44 +2436,46 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3423</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>896</v>
+        <v>4567</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>896</v>
+        <v>7990</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -2489,23 +2487,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3423</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I15" s="7">
-        <v>896</v>
+        <v>4567</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -2517,10 +2517,10 @@
         <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N15" s="7">
-        <v>896</v>
+        <v>7990</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -2534,25 +2534,25 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2561,28 +2561,28 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,28 +2591,28 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>3423</v>
+        <v>5369</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>4567</v>
+        <v>2786</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2621,19 +2621,19 @@
         <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>7990</v>
+        <v>8154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,10 +2642,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>3423</v>
+        <v>6466</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -2657,10 +2657,10 @@
         <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>4567</v>
+        <v>2786</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>21</v>
@@ -2672,10 +2672,10 @@
         <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>7990</v>
+        <v>9252</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -2704,7 +2704,7 @@
         <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>87</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>88</v>
@@ -2734,7 +2734,7 @@
         <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>90</v>
@@ -2758,7 +2758,7 @@
         <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -2767,7 +2767,7 @@
         <v>17758</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>93</v>
@@ -2788,7 +2788,7 @@
         <v>95</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,7 +2860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2603FF6D-342E-475C-B078-AB4BD55A6816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5472068-DA0B-4516-BD56-1ED1F3987EB4}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2984,13 +2984,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2999,13 +2999,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3014,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>97</v>
@@ -3029,43 +3029,43 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>4660</v>
+        <v>977</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>5745</v>
+        <v>1036</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>10406</v>
+        <v>2013</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>98</v>
@@ -3080,10 +3080,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>4660</v>
+        <v>977</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -3095,10 +3095,10 @@
         <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>5745</v>
+        <v>1036</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -3110,10 +3110,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>10406</v>
+        <v>2013</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>21</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3139,13 +3139,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3154,13 +3154,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3169,13 +3169,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,10 +3190,10 @@
         <v>6017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3205,10 +3205,10 @@
         <v>746</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3220,10 +3220,10 @@
         <v>6763</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3294,13 +3294,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3309,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3324,13 +3324,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,31 +3339,31 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>4407</v>
+        <v>4660</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>8211</v>
+        <v>5745</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3372,13 +3372,13 @@
         <v>16</v>
       </c>
       <c r="N11" s="7">
-        <v>12618</v>
+        <v>10406</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -3390,10 +3390,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>4407</v>
+        <v>4660</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -3405,10 +3405,10 @@
         <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>8211</v>
+        <v>5745</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -3423,7 +3423,7 @@
         <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>12618</v>
+        <v>10406</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3449,13 +3449,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3464,13 +3464,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3479,13 +3479,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,46 +3494,46 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>977</v>
+        <v>2214</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>1036</v>
+        <v>1885</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>2013</v>
+        <v>4099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -3545,10 +3545,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>977</v>
+        <v>2214</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -3560,10 +3560,10 @@
         <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" s="7">
-        <v>1036</v>
+        <v>1885</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -3575,10 +3575,10 @@
         <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N15" s="7">
-        <v>2013</v>
+        <v>4099</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3604,13 +3604,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3619,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3634,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,46 +3649,46 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>2214</v>
+        <v>4407</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>1885</v>
+        <v>8211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>4099</v>
+        <v>12618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -3700,10 +3700,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>2214</v>
+        <v>4407</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -3715,10 +3715,10 @@
         <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>1885</v>
+        <v>8211</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>21</v>
@@ -3730,10 +3730,10 @@
         <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>4099</v>
+        <v>12618</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -3759,10 +3759,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>101</v>
@@ -3774,10 +3774,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>102</v>
@@ -3789,10 +3789,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>103</v>
@@ -3810,7 +3810,7 @@
         <v>18275</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>104</v>
@@ -3825,7 +3825,7 @@
         <v>17623</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>105</v>
@@ -3840,7 +3840,7 @@
         <v>35898</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>106</v>

--- a/data/trans_orig/IP16B08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{557607DB-E26A-4EA5-B1B2-D8F645C2BC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE0FECBF-24C2-4C45-A269-F9B2265861F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CB458034-D86D-47CB-A663-219EDF8981C4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB73037C-EF38-437B-8959-20757F8BEAEF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="108">
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2007 (Tasa respuesta: 2,9%)</t>
   </si>
@@ -70,18 +70,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>45,98%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -91,72 +109,63 @@
     <t>15,63%</t>
   </si>
   <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
+    <t>63,47%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
     <t>23,25%</t>
   </si>
   <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
     <t>33,17%</t>
   </si>
   <si>
-    <t>82,56%</t>
+    <t>67,11%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
+    <t>45,89%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
     <t>18,74%</t>
   </si>
   <si>
@@ -166,64 +175,58 @@
     <t>14,51%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>90,51%</t>
+  </si>
+  <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>90,51%</t>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>17,61%</t>
+    <t>19,24%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>21,21%</t>
+    <t>21,12%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2012 (Tasa respuesta: 2,53%)</t>
@@ -232,16 +235,25 @@
     <t>—%</t>
   </si>
   <si>
+    <t>22,85%</t>
+  </si>
+  <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>79,25%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>79,25%</t>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -253,13 +265,10 @@
     <t>11,83%</t>
   </si>
   <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -268,40 +277,49 @@
     <t>13,49%</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>70,27%</t>
+    <t>59,15%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>29,06%</t>
+    <t>27,8%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -310,37 +328,31 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>14,33%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2015 (Tasa respuesta: 2,35%)</t>
   </si>
   <si>
+    <t>43,07%</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>43,07%</t>
+    <t>88,85%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>88,85%</t>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -350,15 +362,6 @@
   </si>
   <si>
     <t>3,75%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -465,39 +468,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -549,7 +552,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -660,13 +663,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -675,6 +671,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -739,19 +742,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8296D76C-1475-4CF4-BBB5-7E3D443BD3AD}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5213286-9099-4C86-8707-292D2BF625E4}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -871,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>818</v>
+        <v>961</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -883,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3455</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -898,19 +921,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>818</v>
+        <v>4416</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -922,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>961</v>
+        <v>818</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -934,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>3455</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -949,19 +972,19 @@
         <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>4416</v>
+        <v>818</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -976,13 +999,13 @@
         <v>1779</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -991,13 +1014,13 @@
         <v>3455</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -1006,13 +1029,13 @@
         <v>5234</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1023,13 +1046,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2702</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
@@ -1038,34 +1061,34 @@
         <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>4826</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>7528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1074,13 +1097,13 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2702</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
@@ -1089,34 +1112,34 @@
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>4826</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>7528</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1131,13 +1154,13 @@
         <v>2702</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -1146,13 +1169,13 @@
         <v>4826</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -1161,13 +1184,13 @@
         <v>7528</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1178,49 +1201,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>4603</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>1308</v>
+        <v>2634</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>1308</v>
+        <v>7237</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1229,49 +1252,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>4603</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>2634</v>
+        <v>1308</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>7237</v>
+        <v>1308</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1286,13 +1309,13 @@
         <v>4603</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -1301,13 +1324,13 @@
         <v>3942</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -1316,13 +1339,13 @@
         <v>8545</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1333,49 +1356,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>5861</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>7746</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1384,49 +1407,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>5861</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1885</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>7746</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,13 +1464,13 @@
         <v>5861</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -1456,13 +1479,13 @@
         <v>1885</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>12</v>
@@ -1471,13 +1494,13 @@
         <v>7746</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1488,49 +1511,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>8466</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>5258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>13724</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,49 +1562,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>8466</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>5258</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>13724</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,13 +1619,13 @@
         <v>8466</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -1611,13 +1634,13 @@
         <v>5258</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -1626,13 +1649,13 @@
         <v>13724</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,40 +1666,40 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>818</v>
+        <v>22593</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I19" s="7">
-        <v>1308</v>
+        <v>18058</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="N19" s="7">
-        <v>2126</v>
+        <v>40650</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>52</v>
@@ -1694,40 +1717,40 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>22593</v>
+        <v>818</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H20" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>18058</v>
+        <v>1308</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M20" s="7">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>40650</v>
+        <v>2126</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>59</v>
@@ -1751,13 +1774,13 @@
         <v>23411</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -1766,13 +1789,13 @@
         <v>19366</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>61</v>
@@ -1781,13 +1804,18 @@
         <v>42776</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1808,8 +1836,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C26CD3C-1673-468D-BB28-485B2E7EA91B}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B659D5-3C2D-42F1-B0CD-49BFB522D6EE}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1825,7 +1853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1930,43 +1958,43 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,43 +2007,43 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,13 +2056,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -2043,13 +2071,13 @@
         <v>896</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2058,13 +2086,13 @@
         <v>896</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,13 +2103,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2736</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
@@ -2090,34 +2118,34 @@
         <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>6248</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>8984</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2154,13 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2736</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
@@ -2141,34 +2169,34 @@
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>6248</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>8984</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2211,13 @@
         <v>2736</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -2198,13 +2226,13 @@
         <v>6248</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -2213,13 +2241,13 @@
         <v>8984</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,49 +2258,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>7419</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>3261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>10680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,49 +2309,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>7419</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>3261</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>10680</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2366,13 @@
         <v>7419</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -2353,13 +2381,13 @@
         <v>3261</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -2368,13 +2396,13 @@
         <v>10680</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,49 +2413,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>3423</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>4567</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>7990</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,49 +2464,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3423</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>4567</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>7990</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2521,13 @@
         <v>3423</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -2508,13 +2536,13 @@
         <v>4567</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
@@ -2523,13 +2551,13 @@
         <v>7990</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,28 +2568,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>1097</v>
+        <v>5369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2786</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
@@ -2570,19 +2598,19 @@
         <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>1098</v>
+        <v>8154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,28 +2619,28 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>5369</v>
+        <v>1097</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>2786</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2621,19 +2649,19 @@
         <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>8154</v>
+        <v>1098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2676,13 @@
         <v>6466</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -2663,13 +2691,13 @@
         <v>2786</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -2678,13 +2706,13 @@
         <v>9252</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,49 +2723,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7">
-        <v>1097</v>
+        <v>18947</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>17758</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="N19" s="7">
-        <v>1097</v>
+        <v>36705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,49 +2774,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>18947</v>
+        <v>1097</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>17758</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>36705</v>
+        <v>1097</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2831,13 @@
         <v>20044</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -2818,13 +2846,13 @@
         <v>17758</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>53</v>
@@ -2833,13 +2861,18 @@
         <v>37802</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2860,8 +2893,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5472068-DA0B-4516-BD56-1ED1F3987EB4}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C224E02A-13FF-4D0B-B7F3-5A78B6AB34B3}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2877,7 +2910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2978,49 +3011,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1036</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2013</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,49 +3062,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1036</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2013</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3119,13 @@
         <v>977</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3101,13 +3134,13 @@
         <v>1036</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3116,13 +3149,13 @@
         <v>2013</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,49 +3166,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>6017</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>6763</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,49 +3217,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>6017</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>746</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="M8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>6763</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3274,13 @@
         <v>6017</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3256,13 +3289,13 @@
         <v>746</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -3271,13 +3304,13 @@
         <v>6763</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,49 +3321,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>4660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>5745</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>10406</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,49 +3372,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>4660</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>5745</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="M11" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>10406</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3429,13 @@
         <v>4660</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -3411,13 +3444,13 @@
         <v>5745</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -3426,13 +3459,13 @@
         <v>10406</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3476,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>14</v>
@@ -3458,34 +3491,34 @@
         <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>4099</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3527,13 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>2214</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
@@ -3509,34 +3542,34 @@
         <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1885</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>4099</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3584,13 @@
         <v>2214</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -3566,13 +3599,13 @@
         <v>1885</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -3581,13 +3614,13 @@
         <v>4099</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,49 +3631,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>4407</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>8211</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>12618</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,49 +3682,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>4407</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>8211</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>12618</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3739,13 @@
         <v>4407</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -3721,13 +3754,13 @@
         <v>8211</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -3736,13 +3769,13 @@
         <v>12618</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,49 +3786,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>18275</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>17623</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>35898</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,49 +3837,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>18275</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>17623</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>35898</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3894,13 @@
         <v>18275</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -3876,13 +3909,13 @@
         <v>17623</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>50</v>
@@ -3891,13 +3924,18 @@
         <v>35898</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B08-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE0FECBF-24C2-4C45-A269-F9B2265861F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AFBF5F7-0A3D-4E15-A4FD-1C61D7FBF8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB73037C-EF38-437B-8959-20757F8BEAEF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{369FBE01-5744-4C79-AD26-7BABD539467B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="106">
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2007 (Tasa respuesta: 2,9%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -91,7 +91,7 @@
     <t>84,37%</t>
   </si>
   <si>
-    <t>36,53%</t>
+    <t>34,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,10 +109,10 @@
     <t>15,63%</t>
   </si>
   <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -127,34 +127,34 @@
     <t>15,69%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>66,83%</t>
   </si>
   <si>
-    <t>32,89%</t>
+    <t>17,44%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>54,11%</t>
+    <t>53,93%</t>
   </si>
   <si>
     <t>33,17%</t>
   </si>
   <si>
-    <t>67,11%</t>
+    <t>82,56%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -187,19 +187,19 @@
     <t>96,51%</t>
   </si>
   <si>
-    <t>80,76%</t>
+    <t>80,73%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>78,88%</t>
+    <t>79,28%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>86,16%</t>
+    <t>87,02%</t>
   </si>
   <si>
     <t>98,49%</t>
@@ -208,13 +208,13 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>19,24%</t>
+    <t>19,27%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>21,12%</t>
+    <t>20,72%</t>
   </si>
   <si>
     <t>4,97%</t>
@@ -223,7 +223,7 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>13,84%</t>
+    <t>12,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -280,31 +280,31 @@
     <t>83,03%</t>
   </si>
   <si>
-    <t>40,85%</t>
+    <t>30,54%</t>
   </si>
   <si>
     <t>88,14%</t>
   </si>
   <si>
-    <t>51,49%</t>
+    <t>55,36%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>59,15%</t>
+    <t>69,46%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>48,51%</t>
+    <t>44,64%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>72,2%</t>
+    <t>74,84%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -313,13 +313,10 @@
     <t>97,1%</t>
   </si>
   <si>
-    <t>85,67%</t>
-  </si>
-  <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>27,8%</t>
+    <t>25,16%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -328,10 +325,7 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2015 (Tasa respuesta: 2,35%)</t>
+    <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2016 (Tasa respuesta: 2,35%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -773,7 +767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5213286-9099-4C86-8707-292D2BF625E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C6C58-FDD7-4E3A-8662-741AD34F8778}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1836,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B659D5-3C2D-42F1-B0CD-49BFB522D6EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4406A1C1-E51F-463A-A2DA-28F7186798E7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2762,7 +2756,7 @@
         <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -2780,28 +2774,28 @@
         <v>1097</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2810,13 +2804,13 @@
         <v>1097</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,7 +2887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C224E02A-13FF-4D0B-B7F3-5A78B6AB34B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586E8FD7-CAB8-4620-B4C3-21711F9D8B4A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2910,7 +2904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3050,7 +3044,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -3104,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,7 +3354,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -3414,7 +3408,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,7 +3664,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -3724,7 +3718,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,7 +3789,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -3810,7 +3804,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -3825,7 +3819,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -3849,37 +3843,37 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16B08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AFBF5F7-0A3D-4E15-A4FD-1C61D7FBF8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{118D5704-E062-4EC5-AF77-3E449D1E84FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{369FBE01-5744-4C79-AD26-7BABD539467B}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{B130A694-24EF-427A-B4C6-43D472868663}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="104">
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2007 (Tasa respuesta: 2,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,264 +67,258 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>54,02%</t>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>100,0%</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2012 (Tasa respuesta: 2,53%)</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>86,51%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2012 (Tasa respuesta: 2,53%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
     <t>88,17%</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
     <t>11,83%</t>
   </si>
   <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>30,54%</t>
+    <t>29,73%</t>
   </si>
   <si>
     <t>88,14%</t>
   </si>
   <si>
-    <t>55,36%</t>
+    <t>56,55%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>69,46%</t>
+    <t>70,27%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>44,64%</t>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>70,94%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>29,06%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
+    <t>13,83%</t>
+  </si>
+  <si>
     <t>Menores según si ha consumido medicamentos para la alergia recetados por el médico en 2016 (Tasa respuesta: 2,35%)</t>
   </si>
   <si>
@@ -340,19 +334,19 @@
     <t>11,15%</t>
   </si>
   <si>
+    <t>92,39%</t>
+  </si>
+  <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
     <t>96,25%</t>
   </si>
   <si>
+    <t>7,61%</t>
+  </si>
+  <si>
     <t>7,06%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -767,8 +761,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C6C58-FDD7-4E3A-8662-741AD34F8778}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0F5D0-C433-4AC1-BA14-C44AFE1482A2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -885,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>961</v>
+        <v>8281</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -900,25 +894,25 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>3455</v>
+        <v>3663</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>4416</v>
+        <v>11944</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -927,7 +921,7 @@
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -936,34 +930,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>818</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -972,13 +966,13 @@
         <v>818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -987,54 +981,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>1779</v>
+        <v>8281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>3455</v>
+        <v>4481</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N6" s="7">
-        <v>5234</v>
+        <v>12762</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1043,46 +1037,46 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>2702</v>
+        <v>2634</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>4826</v>
+        <v>4603</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>7528</v>
+        <v>7237</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1091,19 +1085,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1308</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1112,28 +1106,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1308</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1142,99 +1136,99 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>2702</v>
+        <v>3942</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>4826</v>
+        <v>4603</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N9" s="7">
-        <v>7528</v>
+        <v>8545</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>4603</v>
+        <v>1885</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>2634</v>
+        <v>5861</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>7237</v>
+        <v>7746</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1252,43 +1246,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1308</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1308</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,102 +1291,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>4603</v>
+        <v>1885</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>3942</v>
+        <v>5861</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>8545</v>
+        <v>7746</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>5861</v>
+        <v>5258</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>1885</v>
+        <v>8466</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>7746</v>
+        <v>13724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1422,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -1437,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,102 +1446,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7">
-        <v>5861</v>
+        <v>5258</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>1885</v>
+        <v>8466</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N15" s="7">
-        <v>7746</v>
+        <v>13724</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>8466</v>
+        <v>18058</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>5258</v>
+        <v>22593</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="N16" s="7">
-        <v>13724</v>
+        <v>40650</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1556,49 +1550,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>2126</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,217 +1601,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>8466</v>
+        <v>19366</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>5258</v>
+        <v>23411</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="N18" s="7">
-        <v>13724</v>
+        <v>42776</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>33</v>
-      </c>
-      <c r="D19" s="7">
-        <v>22593</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>25</v>
-      </c>
-      <c r="I19" s="7">
-        <v>18058</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>58</v>
-      </c>
-      <c r="N19" s="7">
-        <v>40650</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>818</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1308</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2126</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="7" t="s">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>34</v>
-      </c>
-      <c r="D21" s="7">
-        <v>23411</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7">
-        <v>27</v>
-      </c>
-      <c r="I21" s="7">
-        <v>19366</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="7">
-        <v>61</v>
-      </c>
-      <c r="N21" s="7">
-        <v>42776</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1830,8 +1668,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4406A1C1-E51F-463A-A2DA-28F7186798E7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF270BC-F86F-4E8F-8146-5A6255F22A09}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1847,7 +1685,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1948,47 +1786,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7144</v>
+      </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2736</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>13</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9880</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>896</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>896</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,15 +1839,17 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2016,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2031,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
@@ -2046,100 +1888,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7144</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>896</v>
+        <v>2736</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>896</v>
+        <v>9880</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>2736</v>
+        <v>3261</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7419</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
         <v>15</v>
       </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6248</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7">
-        <v>12</v>
-      </c>
       <c r="N7" s="7">
-        <v>8984</v>
+        <v>10680</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2169,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2184,13 +2028,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,102 +2043,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>2736</v>
+        <v>3261</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
+        <v>10</v>
+      </c>
+      <c r="I9" s="7">
+        <v>7419</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="7">
         <v>15</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7">
-        <v>8</v>
-      </c>
-      <c r="I9" s="7">
-        <v>6248</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="7">
-        <v>12</v>
-      </c>
       <c r="N9" s="7">
-        <v>8984</v>
+        <v>10680</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>7419</v>
+        <v>4567</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>3261</v>
+        <v>3423</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>10680</v>
+        <v>7990</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2324,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2339,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,102 +2198,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>7419</v>
+        <v>4567</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>3261</v>
+        <v>3423</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>10680</v>
+        <v>7990</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3423</v>
+        <v>2786</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>4567</v>
+        <v>5369</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>7990</v>
+        <v>8154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,43 +2308,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,102 +2353,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>3423</v>
+        <v>2786</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I15" s="7">
-        <v>4567</v>
+        <v>6466</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N15" s="7">
-        <v>7990</v>
+        <v>9252</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>5369</v>
+        <v>17758</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>2786</v>
+        <v>18947</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="N16" s="7">
-        <v>8154</v>
+        <v>36705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,49 +2457,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>1097</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,217 +2508,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>6466</v>
+        <v>17758</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>2786</v>
+        <v>20044</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="N18" s="7">
-        <v>9252</v>
+        <v>37802</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>27</v>
-      </c>
-      <c r="D19" s="7">
-        <v>18947</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>25</v>
-      </c>
-      <c r="I19" s="7">
-        <v>17758</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="7">
-        <v>52</v>
-      </c>
-      <c r="N19" s="7">
-        <v>36705</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1097</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1097</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>28</v>
-      </c>
-      <c r="D21" s="7">
-        <v>20044</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7">
-        <v>25</v>
-      </c>
-      <c r="I21" s="7">
-        <v>17758</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="7">
-        <v>53</v>
-      </c>
-      <c r="N21" s="7">
-        <v>37802</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>62</v>
+      <c r="A19" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2887,8 +2575,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586E8FD7-CAB8-4620-B4C3-21711F9D8B4A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5346B3EF-8788-4814-96EB-1AD9D5E7FD59}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2904,7 +2592,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3005,49 +2693,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>977</v>
+        <v>1782</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>1036</v>
+        <v>6994</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>2013</v>
+        <v>8775</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +2750,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3077,13 +2765,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3092,13 +2780,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,102 +2795,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>977</v>
+        <v>1782</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>1036</v>
+        <v>6994</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>2013</v>
+        <v>8775</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>6017</v>
+        <v>5745</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>746</v>
+        <v>4660</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>6763</v>
+        <v>10406</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +2905,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3232,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3247,13 +2935,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,102 +2950,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>6017</v>
+        <v>5745</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>746</v>
+        <v>4660</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N9" s="7">
-        <v>6763</v>
+        <v>10406</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1885</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2214</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
-        <v>4660</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5745</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="7">
-        <v>16</v>
-      </c>
       <c r="N10" s="7">
-        <v>10406</v>
+        <v>4099</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3060,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3387,13 +3075,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3402,13 +3090,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,102 +3105,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1885</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2214</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="7">
-        <v>4660</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5745</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="7">
-        <v>16</v>
-      </c>
       <c r="N12" s="7">
-        <v>10406</v>
+        <v>4099</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>2214</v>
+        <v>8211</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>1885</v>
+        <v>4407</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>4099</v>
+        <v>12618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3215,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3542,13 +3230,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3557,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,102 +3260,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D15" s="7">
-        <v>2214</v>
+        <v>8211</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I15" s="7">
-        <v>1885</v>
+        <v>4407</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N15" s="7">
-        <v>4099</v>
+        <v>12618</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>4407</v>
+        <v>17623</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>8211</v>
+        <v>18275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N16" s="7">
-        <v>12618</v>
+        <v>35898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3697,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3712,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,217 +3415,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>4407</v>
+        <v>17623</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I18" s="7">
-        <v>8211</v>
+        <v>18275</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N18" s="7">
-        <v>12618</v>
+        <v>35898</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>26</v>
-      </c>
-      <c r="D19" s="7">
-        <v>18275</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="7">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7">
-        <v>17623</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="7">
-        <v>50</v>
-      </c>
-      <c r="N19" s="7">
-        <v>35898</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>26</v>
-      </c>
-      <c r="D21" s="7">
-        <v>18275</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7">
-        <v>24</v>
-      </c>
-      <c r="I21" s="7">
-        <v>17623</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="7">
-        <v>50</v>
-      </c>
-      <c r="N21" s="7">
-        <v>35898</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>62</v>
+      <c r="A19" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
